--- a/all_info/dziwne_badania.xlsx
+++ b/all_info/dziwne_badania.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="41">
   <si>
     <t>surname</t>
   </si>
@@ -31,10 +31,10 @@
     <t>visit_number</t>
   </si>
   <si>
-    <t>total_clearance_between_visit</t>
-  </si>
-  <si>
-    <t>clearance_between_visit</t>
+    <t>total_clearance_effect_between_visit</t>
+  </si>
+  <si>
+    <t>total_clearence_effect_wzgledem_poczatku</t>
   </si>
   <si>
     <t>------------</t>
@@ -49,16 +49,16 @@
     <t>1.Gasek</t>
   </si>
   <si>
-    <t>2. Kolodziejska</t>
-  </si>
-  <si>
-    <t>4. Krzyszton</t>
-  </si>
-  <si>
-    <t>5.Wasowicz twarz</t>
-  </si>
-  <si>
-    <t>6.Wasowicz szyja</t>
+    <t>2. Kołodziejska</t>
+  </si>
+  <si>
+    <t>4. Krzysztoń</t>
+  </si>
+  <si>
+    <t>5.Wąsowicz twarz</t>
+  </si>
+  <si>
+    <t>6.Wąsowicz szyja</t>
   </si>
   <si>
     <t>7. Kowal</t>
@@ -67,10 +67,10 @@
     <t>8.Wierny</t>
   </si>
   <si>
-    <t>9. Bedzinowski twarz</t>
-  </si>
-  <si>
-    <t>10.Bedzinowski szyja</t>
+    <t>9. Będzinowski twarz</t>
+  </si>
+  <si>
+    <t>10.Będzinowski szyja</t>
   </si>
   <si>
     <t>12. Januszewska</t>
@@ -79,25 +79,25 @@
     <t>13.Zborowski</t>
   </si>
   <si>
-    <t>17. Gorszczak</t>
+    <t>17. Górszczak</t>
   </si>
   <si>
     <t>18.Mincberg</t>
   </si>
   <si>
-    <t>19. Gozdz</t>
+    <t>19. Góźdź</t>
   </si>
   <si>
     <t>23.Szlachta</t>
   </si>
   <si>
-    <t>24.Kolomyjec</t>
+    <t>24.Kołomyjec</t>
   </si>
   <si>
     <t>27. Trojanowicz</t>
   </si>
   <si>
-    <t>28.Podlesinski</t>
+    <t>28.Podlesiński</t>
   </si>
   <si>
     <t>29. Jankowski</t>
@@ -115,16 +115,16 @@
     <t>37.Milewski</t>
   </si>
   <si>
-    <t>39. Pekała  twarz</t>
-  </si>
-  <si>
-    <t>42. Banasik</t>
+    <t>39. Pękała  twarz</t>
   </si>
   <si>
     <t>44.Chłopek</t>
   </si>
   <si>
-    <t>47.Piotrowska</t>
+    <t>53.Elabrashi</t>
+  </si>
+  <si>
+    <t>54. Antosik</t>
   </si>
   <si>
     <t>55.Gierz</t>
@@ -133,10 +133,10 @@
     <t>57.Jadczyk</t>
   </si>
   <si>
-    <t>66.Swider</t>
-  </si>
-  <si>
-    <t>67.Swierczyńska</t>
+    <t>66.Świder</t>
+  </si>
+  <si>
+    <t>67.Świerczyńska</t>
   </si>
 </sst>
 </file>
@@ -494,7 +494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K71"/>
+  <dimension ref="A1:K74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -552,10 +552,10 @@
         <v>3</v>
       </c>
       <c r="G2">
-        <v>10.42429</v>
+        <v>-3.15234</v>
       </c>
       <c r="H2">
-        <v>-2.8772831</v>
+        <v>5.84809242</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -566,7 +566,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -575,7 +575,7 @@
         <v>26</v>
       </c>
       <c r="D3">
-        <v>285</v>
+        <v>306</v>
       </c>
       <c r="E3">
         <v>4</v>
@@ -584,10 +584,10 @@
         <v>5</v>
       </c>
       <c r="G3">
-        <v>25.56814509</v>
+        <v>-59.5536</v>
       </c>
       <c r="H3">
-        <v>-10.8121062</v>
+        <v>71.03264</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
@@ -607,7 +607,7 @@
         <v>35</v>
       </c>
       <c r="D4">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="E4">
         <v>4</v>
@@ -616,10 +616,10 @@
         <v>3</v>
       </c>
       <c r="G4">
-        <v>-46.28770076</v>
+        <v>-18.0301</v>
       </c>
       <c r="H4">
-        <v>-17.36314</v>
+        <v>-13.664</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -630,7 +630,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -639,7 +639,7 @@
         <v>50</v>
       </c>
       <c r="D5">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -648,10 +648,10 @@
         <v>6</v>
       </c>
       <c r="G5">
-        <v>-80.81546391000001</v>
+        <v>-46.9263</v>
       </c>
       <c r="H5">
-        <v>-44.6107</v>
+        <v>-39.6762</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -662,7 +662,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -680,10 +680,10 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>-2.334551758</v>
+        <v>-2.33455</v>
       </c>
       <c r="H6">
-        <v>-2.334552</v>
+        <v>-2.33455</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -694,7 +694,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -712,10 +712,10 @@
         <v>3</v>
       </c>
       <c r="G7">
-        <v>-21.37071381</v>
+        <v>-45.4073</v>
       </c>
       <c r="H7">
-        <v>-36.38608</v>
+        <v>-16.5187</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -726,7 +726,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -744,10 +744,10 @@
         <v>4</v>
       </c>
       <c r="G8">
-        <v>-42.88406702</v>
+        <v>-25.316</v>
       </c>
       <c r="H8">
-        <v>-29.49784</v>
+        <v>-46.0165</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -758,7 +758,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
@@ -776,10 +776,10 @@
         <v>3</v>
       </c>
       <c r="G9">
-        <v>1.633219901</v>
+        <v>-38.1468</v>
       </c>
       <c r="H9">
-        <v>-16.56796</v>
+        <v>39.99995</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -790,7 +790,7 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
@@ -808,10 +808,10 @@
         <v>4</v>
       </c>
       <c r="G10">
-        <v>-19.77813675</v>
+        <v>-15.3706</v>
       </c>
       <c r="H10">
-        <v>-9.222364000000001</v>
+        <v>30.77758</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -822,7 +822,7 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
@@ -840,10 +840,10 @@
         <v>3</v>
       </c>
       <c r="G11">
-        <v>39.50543557</v>
+        <v>-2.06039</v>
       </c>
       <c r="H11">
-        <v>-1.152279</v>
+        <v>42.92251</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -854,7 +854,7 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
@@ -872,10 +872,10 @@
         <v>6</v>
       </c>
       <c r="G12">
-        <v>47.77931586</v>
+        <v>-42.4125</v>
       </c>
       <c r="H12">
-        <v>-13.34561</v>
+        <v>55.1882</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -886,7 +886,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
@@ -904,10 +904,10 @@
         <v>12</v>
       </c>
       <c r="G13">
-        <v>64.6450177</v>
+        <v>-21.356</v>
       </c>
       <c r="H13">
-        <v>-3.635379</v>
+        <v>79.34186</v>
       </c>
       <c r="J13">
         <v>2</v>
@@ -918,7 +918,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
@@ -936,10 +936,10 @@
         <v>2</v>
       </c>
       <c r="G14">
-        <v>-8.875717565</v>
+        <v>-8.875719999999999</v>
       </c>
       <c r="H14">
-        <v>-8.875718000000001</v>
+        <v>-8.875719999999999</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -950,7 +950,7 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
@@ -959,7 +959,7 @@
         <v>57</v>
       </c>
       <c r="D15">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c r="E15">
         <v>4</v>
@@ -968,10 +968,10 @@
         <v>6</v>
       </c>
       <c r="G15">
-        <v>37.11727949</v>
+        <v>-4.38974</v>
       </c>
       <c r="H15">
-        <v>-2.610211</v>
+        <v>37.92809</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -982,7 +982,7 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
@@ -991,7 +991,7 @@
         <v>73</v>
       </c>
       <c r="D16">
-        <v>210</v>
+        <v>242</v>
       </c>
       <c r="E16">
         <v>4</v>
@@ -1000,10 +1000,10 @@
         <v>7</v>
       </c>
       <c r="G16">
-        <v>31.72447081</v>
+        <v>-2.32511</v>
       </c>
       <c r="H16">
-        <v>-1.443241</v>
+        <v>36.48485</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -1014,7 +1014,7 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
@@ -1023,7 +1023,7 @@
         <v>42</v>
       </c>
       <c r="D17">
-        <v>252</v>
+        <v>284</v>
       </c>
       <c r="E17">
         <v>4</v>
@@ -1032,10 +1032,10 @@
         <v>8</v>
       </c>
       <c r="G17">
-        <v>24.74994584</v>
+        <v>-4.10477</v>
       </c>
       <c r="H17">
-        <v>-2.607148</v>
+        <v>33.8777</v>
       </c>
       <c r="J17">
         <v>2</v>
@@ -1046,7 +1046,7 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
         <v>16</v>
@@ -1055,7 +1055,7 @@
         <v>35</v>
       </c>
       <c r="D18">
-        <v>526</v>
+        <v>558</v>
       </c>
       <c r="E18">
         <v>4</v>
@@ -1064,10 +1064,10 @@
         <v>13</v>
       </c>
       <c r="G18">
-        <v>30.89387353</v>
+        <v>-15.0963</v>
       </c>
       <c r="H18">
-        <v>-7.80448</v>
+        <v>40.49745</v>
       </c>
       <c r="J18">
         <v>3</v>
@@ -1078,7 +1078,7 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
         <v>16</v>
@@ -1087,7 +1087,7 @@
         <v>43</v>
       </c>
       <c r="D19">
-        <v>617</v>
+        <v>649</v>
       </c>
       <c r="E19">
         <v>4</v>
@@ -1096,10 +1096,10 @@
         <v>14</v>
       </c>
       <c r="G19">
-        <v>54.24970277</v>
+        <v>-7.16202</v>
       </c>
       <c r="H19">
-        <v>-2.767075</v>
+        <v>58.59751</v>
       </c>
       <c r="J19">
         <v>3</v>
@@ -1110,7 +1110,7 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B20" t="s">
         <v>17</v>
@@ -1119,22 +1119,22 @@
         <v>28</v>
       </c>
       <c r="D20">
-        <v>91</v>
+        <v>228</v>
       </c>
       <c r="E20">
         <v>4</v>
       </c>
       <c r="F20">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G20">
-        <v>15.15924464</v>
+        <v>-22.8096</v>
       </c>
       <c r="H20">
-        <v>-14.66516</v>
+        <v>21.04104</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K20" t="b">
         <v>1</v>
@@ -1142,7 +1142,7 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B21" t="s">
         <v>17</v>
@@ -1151,19 +1151,19 @@
         <v>35</v>
       </c>
       <c r="D21">
-        <v>126</v>
+        <v>263</v>
       </c>
       <c r="E21">
         <v>4</v>
       </c>
       <c r="F21">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G21">
-        <v>-21.87464498</v>
+        <v>-54.7193</v>
       </c>
       <c r="H21">
-        <v>-43.20576</v>
+        <v>-22.1647</v>
       </c>
       <c r="J21">
         <v>2</v>
@@ -1174,7 +1174,7 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B22" t="s">
         <v>17</v>
@@ -1183,19 +1183,19 @@
         <v>35</v>
       </c>
       <c r="D22">
-        <v>210</v>
+        <v>347</v>
       </c>
       <c r="E22">
         <v>4</v>
       </c>
       <c r="F22">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G22">
-        <v>23.75565276</v>
+        <v>-9.48385</v>
       </c>
       <c r="H22">
-        <v>-5.575659</v>
+        <v>35.63326</v>
       </c>
       <c r="J22">
         <v>2</v>
@@ -1206,7 +1206,7 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B23" t="s">
         <v>17</v>
@@ -1215,19 +1215,19 @@
         <v>35</v>
       </c>
       <c r="D23">
-        <v>308</v>
+        <v>445</v>
       </c>
       <c r="E23">
         <v>4</v>
       </c>
       <c r="F23">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G23">
-        <v>39.64134697</v>
+        <v>-2.12815</v>
       </c>
       <c r="H23">
-        <v>-1.293921</v>
+        <v>37.90578</v>
       </c>
       <c r="J23">
         <v>3</v>
@@ -1238,28 +1238,28 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="1">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B24" t="s">
         <v>18</v>
       </c>
       <c r="C24">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D24">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="E24">
         <v>4</v>
       </c>
       <c r="F24">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G24">
-        <v>24.38699361</v>
+        <v>-47.097</v>
       </c>
       <c r="H24">
-        <v>-0.06791999999999999</v>
+        <v>6.637161</v>
       </c>
       <c r="J24">
         <v>1</v>
@@ -1270,31 +1270,31 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="1">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="B25" t="s">
         <v>18</v>
       </c>
       <c r="C25">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D25">
-        <v>91</v>
+        <v>147</v>
       </c>
       <c r="E25">
         <v>4</v>
       </c>
       <c r="F25">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G25">
-        <v>28.00426764</v>
+        <v>-0.11552</v>
       </c>
       <c r="H25">
-        <v>-6.438573</v>
+        <v>41.1359</v>
       </c>
       <c r="J25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K25" t="b">
         <v>1</v>
@@ -1302,28 +1302,28 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="1">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="B26" t="s">
         <v>18</v>
       </c>
       <c r="C26">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D26">
-        <v>119</v>
+        <v>182</v>
       </c>
       <c r="E26">
         <v>4</v>
       </c>
       <c r="F26">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G26">
-        <v>11.11065204</v>
+        <v>-10.938</v>
       </c>
       <c r="H26">
-        <v>-7.980154</v>
+        <v>34.69733</v>
       </c>
       <c r="J26">
         <v>2</v>
@@ -1334,31 +1334,31 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="1">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C27">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="D27">
-        <v>71</v>
+        <v>245</v>
       </c>
       <c r="E27">
         <v>4</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G27">
-        <v>-10.50137757</v>
+        <v>-17.9475</v>
       </c>
       <c r="H27">
-        <v>-10.501378</v>
+        <v>47.55594</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K27" t="b">
         <v>1</v>
@@ -1366,31 +1366,31 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="1">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="B28" t="s">
         <v>19</v>
       </c>
       <c r="C28">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="D28">
-        <v>214</v>
+        <v>71</v>
       </c>
       <c r="E28">
         <v>4</v>
       </c>
       <c r="F28">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>11.83623842</v>
+        <v>-10.5014</v>
       </c>
       <c r="H28">
-        <v>-5.8914202</v>
+        <v>-10.5014</v>
       </c>
       <c r="J28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" t="b">
         <v>1</v>
@@ -1398,28 +1398,28 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="1">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="B29" t="s">
         <v>19</v>
       </c>
       <c r="C29">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D29">
-        <v>298</v>
+        <v>214</v>
       </c>
       <c r="E29">
         <v>4</v>
       </c>
       <c r="F29">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G29">
-        <v>34.63947954</v>
+        <v>-8.73962</v>
       </c>
       <c r="H29">
-        <v>-6.1006025</v>
+        <v>26.69809</v>
       </c>
       <c r="J29">
         <v>1</v>
@@ -1430,31 +1430,31 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="1">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="B30" t="s">
         <v>19</v>
       </c>
       <c r="C30">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D30">
-        <v>327</v>
+        <v>298</v>
       </c>
       <c r="E30">
         <v>4</v>
       </c>
       <c r="F30">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G30">
-        <v>5.205281201</v>
+        <v>-13.3967</v>
       </c>
       <c r="H30">
-        <v>-22.609718</v>
+        <v>48.3614</v>
       </c>
       <c r="J30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K30" t="b">
         <v>1</v>
@@ -1462,28 +1462,28 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="1">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="B31" t="s">
         <v>19</v>
       </c>
       <c r="C31">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D31">
-        <v>389</v>
+        <v>327</v>
       </c>
       <c r="E31">
         <v>4</v>
       </c>
       <c r="F31">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G31">
-        <v>33.16303366</v>
+        <v>-43.7845</v>
       </c>
       <c r="H31">
-        <v>-12.015149</v>
+        <v>25.75168</v>
       </c>
       <c r="J31">
         <v>2</v>
@@ -1494,28 +1494,28 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="1">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="B32" t="s">
         <v>19</v>
       </c>
       <c r="C32">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D32">
-        <v>428</v>
+        <v>389</v>
       </c>
       <c r="E32">
         <v>4</v>
       </c>
       <c r="F32">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G32">
-        <v>36.48624383</v>
+        <v>-30.7956</v>
       </c>
       <c r="H32">
-        <v>-0.1130582</v>
+        <v>48.969</v>
       </c>
       <c r="J32">
         <v>2</v>
@@ -1526,31 +1526,31 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="1">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="B33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C33">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D33">
-        <v>139</v>
+        <v>428</v>
       </c>
       <c r="E33">
         <v>4</v>
       </c>
       <c r="F33">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G33">
-        <v>17.41357346</v>
+        <v>-0.22155</v>
       </c>
       <c r="H33">
-        <v>-1.5766086</v>
+        <v>48.85594</v>
       </c>
       <c r="J33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K33" t="b">
         <v>1</v>
@@ -1558,7 +1558,7 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="1">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="B34" t="s">
         <v>20</v>
@@ -1567,22 +1567,22 @@
         <v>28</v>
       </c>
       <c r="D34">
-        <v>237</v>
+        <v>174</v>
       </c>
       <c r="E34">
         <v>4</v>
       </c>
       <c r="F34">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G34">
-        <v>28.95157752</v>
+        <v>-3.24918</v>
       </c>
       <c r="H34">
-        <v>-1.4399495</v>
+        <v>49.90013</v>
       </c>
       <c r="J34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K34" t="b">
         <v>1</v>
@@ -1590,7 +1590,7 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="1">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="B35" t="s">
         <v>20</v>
@@ -1599,19 +1599,19 @@
         <v>28</v>
       </c>
       <c r="D35">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="E35">
         <v>4</v>
       </c>
       <c r="F35">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G35">
-        <v>22.87259244</v>
+        <v>-4.52483</v>
       </c>
       <c r="H35">
-        <v>-2.3033818</v>
+        <v>66.73675</v>
       </c>
       <c r="J35">
         <v>2</v>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="1">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="B36" t="s">
         <v>20</v>
@@ -1631,19 +1631,19 @@
         <v>28</v>
       </c>
       <c r="D36">
-        <v>482</v>
+        <v>300</v>
       </c>
       <c r="E36">
         <v>4</v>
       </c>
       <c r="F36">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G36">
-        <v>23.96471768</v>
+        <v>-6.92471</v>
       </c>
       <c r="H36">
-        <v>-4.6829688</v>
+        <v>64.43337</v>
       </c>
       <c r="J36">
         <v>2</v>
@@ -1654,31 +1654,31 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="1">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="B37" t="s">
         <v>20</v>
       </c>
       <c r="C37">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D37">
-        <v>615</v>
+        <v>517</v>
       </c>
       <c r="E37">
         <v>4</v>
       </c>
       <c r="F37">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G37">
-        <v>27.29454459</v>
+        <v>-14.4924</v>
       </c>
       <c r="H37">
-        <v>-0.7881167</v>
+        <v>63.00372</v>
       </c>
       <c r="J37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K37" t="b">
         <v>1</v>
@@ -1686,31 +1686,31 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="1">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="B38" t="s">
         <v>20</v>
       </c>
       <c r="C38">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="D38">
-        <v>944</v>
+        <v>650</v>
       </c>
       <c r="E38">
         <v>4</v>
       </c>
       <c r="F38">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G38">
-        <v>17.25733979</v>
+        <v>-3.34781</v>
       </c>
       <c r="H38">
-        <v>-0.3967308</v>
+        <v>75.67066</v>
       </c>
       <c r="J38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K38" t="b">
         <v>1</v>
@@ -1718,28 +1718,28 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="1">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="B39" t="s">
         <v>20</v>
       </c>
       <c r="C39">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="D39">
-        <v>986</v>
+        <v>979</v>
       </c>
       <c r="E39">
         <v>4</v>
       </c>
       <c r="F39">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G39">
-        <v>14.96295773</v>
+        <v>-1.75382</v>
       </c>
       <c r="H39">
-        <v>-0.0338568</v>
+        <v>76.9823</v>
       </c>
       <c r="J39">
         <v>4</v>
@@ -1753,28 +1753,28 @@
         <v>127</v>
       </c>
       <c r="B40" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C40">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="D40">
-        <v>171</v>
+        <v>1021</v>
       </c>
       <c r="E40">
         <v>4</v>
       </c>
       <c r="F40">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="G40">
-        <v>24.40968269</v>
+        <v>-0.14709</v>
       </c>
       <c r="H40">
-        <v>-0.9682187</v>
+        <v>76.94844000000001</v>
       </c>
       <c r="J40">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K40" t="b">
         <v>1</v>
@@ -1782,31 +1782,31 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="1">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="B41" t="s">
         <v>21</v>
       </c>
       <c r="C41">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="D41">
-        <v>251</v>
+        <v>171</v>
       </c>
       <c r="E41">
         <v>4</v>
       </c>
       <c r="F41">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G41">
-        <v>47.97989421</v>
+        <v>-1.82511</v>
       </c>
       <c r="H41">
-        <v>-2.6941819</v>
+        <v>45.98197</v>
       </c>
       <c r="J41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K41" t="b">
         <v>1</v>
@@ -1814,28 +1814,28 @@
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="1">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="B42" t="s">
         <v>21</v>
       </c>
       <c r="C42">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D42">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="E42">
         <v>4</v>
       </c>
       <c r="F42">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G42">
-        <v>35.25850023</v>
+        <v>-8.92324</v>
       </c>
       <c r="H42">
-        <v>-8.577655</v>
+        <v>67.11295</v>
       </c>
       <c r="J42">
         <v>2</v>
@@ -1846,31 +1846,31 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="1">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="B43" t="s">
         <v>21</v>
       </c>
       <c r="C43">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D43">
-        <v>817</v>
+        <v>328</v>
       </c>
       <c r="E43">
         <v>4</v>
       </c>
       <c r="F43">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G43">
-        <v>44.03516449</v>
+        <v>-26.0822</v>
       </c>
       <c r="H43">
-        <v>-1.4545569</v>
+        <v>58.5353</v>
       </c>
       <c r="J43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K43" t="b">
         <v>1</v>
@@ -1878,31 +1878,31 @@
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="B44" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C44">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="D44">
-        <v>90</v>
+        <v>944</v>
       </c>
       <c r="E44">
         <v>4</v>
       </c>
       <c r="F44">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G44">
-        <v>35.52908249</v>
+        <v>-5.73208</v>
       </c>
       <c r="H44">
-        <v>-4.6597852</v>
+        <v>73.16970999999999</v>
       </c>
       <c r="J44">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K44" t="b">
         <v>1</v>
@@ -1910,28 +1910,28 @@
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="1">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="B45" t="s">
         <v>22</v>
       </c>
       <c r="C45">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="D45">
-        <v>130</v>
+        <v>258</v>
       </c>
       <c r="E45">
         <v>4</v>
       </c>
       <c r="F45">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G45">
-        <v>34.8017205</v>
+        <v>-7.43839</v>
       </c>
       <c r="H45">
-        <v>-1.1213014</v>
+        <v>32.6951</v>
       </c>
       <c r="J45">
         <v>3</v>
@@ -1942,31 +1942,31 @@
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="B46" t="s">
         <v>22</v>
       </c>
       <c r="C46">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="D46">
-        <v>197</v>
+        <v>298</v>
       </c>
       <c r="E46">
         <v>4</v>
       </c>
       <c r="F46">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="G46">
-        <v>36.73269191</v>
+        <v>-3.0693</v>
       </c>
       <c r="H46">
-        <v>-0.2961236</v>
+        <v>31.5738</v>
       </c>
       <c r="J46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K46" t="b">
         <v>1</v>
@@ -1974,31 +1974,31 @@
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1">
-        <v>149</v>
+        <v>178</v>
       </c>
       <c r="B47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C47">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D47">
-        <v>176</v>
+        <v>486</v>
       </c>
       <c r="E47">
         <v>4</v>
       </c>
       <c r="F47">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="G47">
-        <v>67.33919236</v>
+        <v>-0.43167</v>
       </c>
       <c r="H47">
-        <v>-14.043688</v>
+        <v>31.10492</v>
       </c>
       <c r="J47">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K47" t="b">
         <v>1</v>
@@ -2006,28 +2006,28 @@
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="1">
-        <v>150</v>
+        <v>186</v>
       </c>
       <c r="B48" t="s">
         <v>23</v>
       </c>
       <c r="C48">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="D48">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="E48">
         <v>4</v>
       </c>
       <c r="F48">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G48">
-        <v>13.81239916</v>
+        <v>-9.858269999999999</v>
       </c>
       <c r="H48">
-        <v>-10.972986</v>
+        <v>37.58051</v>
       </c>
       <c r="J48">
         <v>1</v>
@@ -2038,31 +2038,31 @@
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="1">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="B49" t="s">
+        <v>23</v>
+      </c>
+      <c r="C49">
         <v>24</v>
       </c>
-      <c r="C49">
-        <v>35</v>
-      </c>
       <c r="D49">
-        <v>35</v>
+        <v>200</v>
       </c>
       <c r="E49">
         <v>4</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G49">
-        <v>-1.802383565</v>
+        <v>-16.3226</v>
       </c>
       <c r="H49">
-        <v>-1.8023836</v>
+        <v>26.60753</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49" t="b">
         <v>1</v>
@@ -2070,31 +2070,31 @@
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="1">
-        <v>165</v>
+        <v>205</v>
       </c>
       <c r="B50" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C50">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="D50">
-        <v>252</v>
+        <v>35</v>
       </c>
       <c r="E50">
         <v>4</v>
       </c>
       <c r="F50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G50">
-        <v>5.32158476</v>
+        <v>-1.80238</v>
       </c>
       <c r="H50">
-        <v>-1.4569737</v>
+        <v>-1.80238</v>
       </c>
       <c r="J50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50" t="b">
         <v>1</v>
@@ -2102,28 +2102,28 @@
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="1">
-        <v>180</v>
+        <v>209</v>
       </c>
       <c r="B51" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C51">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="D51">
-        <v>166</v>
+        <v>252</v>
       </c>
       <c r="E51">
         <v>4</v>
       </c>
       <c r="F51">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G51">
-        <v>11.6711324</v>
+        <v>-2.21081</v>
       </c>
       <c r="H51">
-        <v>-6.8258127</v>
+        <v>32.6407</v>
       </c>
       <c r="J51">
         <v>1</v>
@@ -2134,28 +2134,28 @@
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="1">
-        <v>186</v>
+        <v>227</v>
       </c>
       <c r="B52" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C52">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="D52">
-        <v>405</v>
+        <v>306</v>
       </c>
       <c r="E52">
         <v>4</v>
       </c>
       <c r="F52">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G52">
-        <v>13.88615533</v>
+        <v>-8.200900000000001</v>
       </c>
       <c r="H52">
-        <v>-5.4210727</v>
+        <v>9.941713999999999</v>
       </c>
       <c r="J52">
         <v>1</v>
@@ -2166,31 +2166,31 @@
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="1">
-        <v>189</v>
+        <v>233</v>
       </c>
       <c r="B53" t="s">
         <v>27</v>
       </c>
       <c r="C53">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D53">
-        <v>663</v>
+        <v>405</v>
       </c>
       <c r="E53">
         <v>4</v>
       </c>
       <c r="F53">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G53">
-        <v>24.33531178</v>
+        <v>-10.808</v>
       </c>
       <c r="H53">
-        <v>-2.844634</v>
+        <v>44.42099</v>
       </c>
       <c r="J53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K53" t="b">
         <v>1</v>
@@ -2198,31 +2198,31 @@
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="1">
-        <v>190</v>
+        <v>236</v>
       </c>
       <c r="B54" t="s">
+        <v>27</v>
+      </c>
+      <c r="C54">
         <v>28</v>
       </c>
-      <c r="C54">
-        <v>50</v>
-      </c>
       <c r="D54">
-        <v>50</v>
+        <v>663</v>
       </c>
       <c r="E54">
         <v>4</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G54">
-        <v>-5.01006</v>
+        <v>-8.956950000000001</v>
       </c>
       <c r="H54">
-        <v>-5.01006</v>
+        <v>65.39642000000001</v>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K54" t="b">
         <v>1</v>
@@ -2230,31 +2230,31 @@
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="1">
-        <v>199</v>
+        <v>237</v>
       </c>
       <c r="B55" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C55">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="D55">
-        <v>503</v>
+        <v>50</v>
       </c>
       <c r="E55">
         <v>4</v>
       </c>
       <c r="F55">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G55">
-        <v>45.01324017</v>
+        <v>-27.7512</v>
       </c>
       <c r="H55">
-        <v>-1.9670727</v>
+        <v>-27.7512</v>
       </c>
       <c r="J55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K55" t="b">
         <v>1</v>
@@ -2262,31 +2262,31 @@
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="1">
-        <v>210</v>
+        <v>246</v>
       </c>
       <c r="B56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C56">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="D56">
-        <v>168</v>
+        <v>503</v>
       </c>
       <c r="E56">
         <v>4</v>
       </c>
       <c r="F56">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G56">
-        <v>22.7364785</v>
+        <v>-5.0572</v>
       </c>
       <c r="H56">
-        <v>-4.9368983</v>
+        <v>59.13645</v>
       </c>
       <c r="J56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K56" t="b">
         <v>1</v>
@@ -2294,28 +2294,28 @@
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="1">
-        <v>213</v>
+        <v>262</v>
       </c>
       <c r="B57" t="s">
         <v>30</v>
       </c>
       <c r="C57">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D57">
-        <v>395</v>
+        <v>278</v>
       </c>
       <c r="E57">
         <v>4</v>
       </c>
       <c r="F57">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G57">
-        <v>4.471644795</v>
+        <v>-13.1115</v>
       </c>
       <c r="H57">
-        <v>-5.2012024</v>
+        <v>57.40975</v>
       </c>
       <c r="J57">
         <v>2</v>
@@ -2326,31 +2326,31 @@
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="1">
-        <v>229</v>
+        <v>265</v>
       </c>
       <c r="B58" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C58">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="D58">
-        <v>312</v>
+        <v>505</v>
       </c>
       <c r="E58">
         <v>4</v>
       </c>
       <c r="F58">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G58">
-        <v>54.68973836</v>
+        <v>-13.4184</v>
       </c>
       <c r="H58">
-        <v>-0.5235</v>
+        <v>56.03707</v>
       </c>
       <c r="J58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K58" t="b">
         <v>1</v>
@@ -2358,31 +2358,31 @@
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="1">
-        <v>230</v>
+        <v>283</v>
       </c>
       <c r="B59" t="s">
         <v>31</v>
       </c>
       <c r="C59">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D59">
-        <v>340</v>
+        <v>312</v>
       </c>
       <c r="E59">
         <v>4</v>
       </c>
       <c r="F59">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G59">
-        <v>50.36848007</v>
+        <v>-3.41071</v>
       </c>
       <c r="H59">
-        <v>-0.5362</v>
+        <v>84.1268</v>
       </c>
       <c r="J59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K59" t="b">
         <v>1</v>
@@ -2390,31 +2390,31 @@
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="1">
-        <v>239</v>
+        <v>284</v>
       </c>
       <c r="B60" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C60">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="D60">
-        <v>322</v>
+        <v>340</v>
       </c>
       <c r="E60">
         <v>4</v>
       </c>
       <c r="F60">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G60">
-        <v>17.20397406</v>
+        <v>-3.37806</v>
       </c>
       <c r="H60">
-        <v>-7.0370637</v>
+        <v>83.59059000000001</v>
       </c>
       <c r="J60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K60" t="b">
         <v>1</v>
@@ -2422,28 +2422,28 @@
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="1">
-        <v>249</v>
+        <v>293</v>
       </c>
       <c r="B61" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C61">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="D61">
-        <v>210</v>
+        <v>322</v>
       </c>
       <c r="E61">
         <v>4</v>
       </c>
       <c r="F61">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G61">
-        <v>34.68393815</v>
+        <v>-10.769</v>
       </c>
       <c r="H61">
-        <v>-20.195767</v>
+        <v>27.61741</v>
       </c>
       <c r="J61">
         <v>1</v>
@@ -2454,31 +2454,31 @@
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="1">
-        <v>256</v>
+        <v>305</v>
       </c>
       <c r="B62" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C62">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="D62">
-        <v>42</v>
+        <v>238</v>
       </c>
       <c r="E62">
         <v>4</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G62">
-        <v>-12.09727126</v>
+        <v>-57.5811</v>
       </c>
       <c r="H62">
-        <v>-12.097271</v>
+        <v>44.7306</v>
       </c>
       <c r="J62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K62" t="b">
         <v>1</v>
@@ -2486,31 +2486,31 @@
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="1">
-        <v>262</v>
+        <v>308</v>
       </c>
       <c r="B63" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C63">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="D63">
-        <v>314</v>
+        <v>343</v>
       </c>
       <c r="E63">
         <v>4</v>
       </c>
       <c r="F63">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G63">
-        <v>55.64544887</v>
+        <v>-85.3986</v>
       </c>
       <c r="H63">
-        <v>-1.04673</v>
+        <v>50.97122187</v>
       </c>
       <c r="J63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K63" t="b">
         <v>1</v>
@@ -2518,31 +2518,31 @@
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="1">
-        <v>263</v>
+        <v>311</v>
       </c>
       <c r="B64" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C64">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D64">
-        <v>352</v>
+        <v>587</v>
       </c>
       <c r="E64">
         <v>4</v>
       </c>
       <c r="F64">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G64">
-        <v>48.28769822</v>
+        <v>-35.6178</v>
       </c>
       <c r="H64">
-        <v>-0.9389</v>
+        <v>67.49758144</v>
       </c>
       <c r="J64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K64" t="b">
         <v>1</v>
@@ -2550,28 +2550,28 @@
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="1">
-        <v>273</v>
+        <v>323</v>
       </c>
       <c r="B65" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C65">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="D65">
-        <v>73</v>
+        <v>412</v>
       </c>
       <c r="E65">
         <v>4</v>
       </c>
       <c r="F65">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G65">
-        <v>-13.49766535</v>
+        <v>-3.40189</v>
       </c>
       <c r="H65">
-        <v>-22.82528</v>
+        <v>68.18422</v>
       </c>
       <c r="J65">
         <v>1</v>
@@ -2582,31 +2582,31 @@
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="1">
-        <v>291</v>
+        <v>324</v>
       </c>
       <c r="B66" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C66">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D66">
-        <v>39</v>
+        <v>450</v>
       </c>
       <c r="E66">
         <v>4</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G66">
-        <v>-12.73332345</v>
+        <v>-2.95104</v>
       </c>
       <c r="H66">
-        <v>-12.73332</v>
+        <v>67.24532000000001</v>
       </c>
       <c r="J66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K66" t="b">
         <v>1</v>
@@ -2614,28 +2614,28 @@
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="1">
-        <v>296</v>
+        <v>356</v>
       </c>
       <c r="B67" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C67">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D67">
-        <v>466</v>
+        <v>28</v>
       </c>
       <c r="E67">
         <v>4</v>
       </c>
       <c r="F67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G67">
-        <v>25.45840398</v>
+        <v>-21.7972</v>
       </c>
       <c r="H67">
-        <v>-0.5482249300000001</v>
+        <v>-21.7972</v>
       </c>
       <c r="J67">
         <v>0</v>
@@ -2646,28 +2646,28 @@
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="1">
-        <v>305</v>
+        <v>362</v>
       </c>
       <c r="B68" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C68">
+        <v>28</v>
+      </c>
+      <c r="D68">
+        <v>231</v>
+      </c>
+      <c r="E68">
+        <v>4</v>
+      </c>
+      <c r="F68">
         <v>16</v>
       </c>
-      <c r="D68">
-        <v>53</v>
-      </c>
-      <c r="E68">
-        <v>3</v>
-      </c>
-      <c r="F68">
-        <v>14</v>
-      </c>
       <c r="G68">
-        <v>14.77915263</v>
+        <v>-24.33521561</v>
       </c>
       <c r="H68">
-        <v>-9.903904600000001</v>
+        <v>25.907326</v>
       </c>
       <c r="J68">
         <v>3</v>
@@ -2678,16 +2678,16 @@
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="1">
-        <v>308</v>
+        <v>368</v>
       </c>
       <c r="B69" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C69">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="D69">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="E69">
         <v>4</v>
@@ -2696,10 +2696,10 @@
         <v>1</v>
       </c>
       <c r="G69">
-        <v>-5.586987828</v>
+        <v>-12.733323</v>
       </c>
       <c r="H69">
-        <v>-5.5869878</v>
+        <v>-12.733323</v>
       </c>
       <c r="J69">
         <v>0</v>
@@ -2710,31 +2710,31 @@
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="1">
-        <v>311</v>
+        <v>377</v>
       </c>
       <c r="B70" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C70">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D70">
-        <v>117</v>
+        <v>466</v>
       </c>
       <c r="E70">
         <v>4</v>
       </c>
       <c r="F70">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G70">
-        <v>36.69484746</v>
+        <v>-0.9202911</v>
       </c>
       <c r="H70">
-        <v>-15.192406</v>
+        <v>39.88096</v>
       </c>
       <c r="J70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K70" t="b">
         <v>1</v>
@@ -2742,33 +2742,129 @@
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="1">
-        <v>315</v>
+        <v>389</v>
       </c>
       <c r="B71" t="s">
+        <v>39</v>
+      </c>
+      <c r="C71">
+        <v>16</v>
+      </c>
+      <c r="D71">
+        <v>109</v>
+      </c>
+      <c r="E71">
+        <v>3</v>
+      </c>
+      <c r="F71">
+        <v>14</v>
+      </c>
+      <c r="G71">
+        <v>-33.662672</v>
+      </c>
+      <c r="H71">
+        <v>60.675066</v>
+      </c>
+      <c r="J71">
+        <v>3</v>
+      </c>
+      <c r="K71" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" s="1">
+        <v>392</v>
+      </c>
+      <c r="B72" t="s">
         <v>40</v>
       </c>
-      <c r="C71">
+      <c r="C72">
+        <v>28</v>
+      </c>
+      <c r="D72">
+        <v>28</v>
+      </c>
+      <c r="E72">
+        <v>4</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>-5.5869878</v>
+      </c>
+      <c r="H72">
+        <v>-5.5869878</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" s="1">
+        <v>395</v>
+      </c>
+      <c r="B73" t="s">
+        <v>40</v>
+      </c>
+      <c r="C73">
+        <v>36</v>
+      </c>
+      <c r="D73">
+        <v>117</v>
+      </c>
+      <c r="E73">
+        <v>4</v>
+      </c>
+      <c r="F73">
+        <v>4</v>
+      </c>
+      <c r="G73">
+        <v>-38.106394</v>
+      </c>
+      <c r="H73">
+        <v>44.939205</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" s="1">
+        <v>399</v>
+      </c>
+      <c r="B74" t="s">
+        <v>40</v>
+      </c>
+      <c r="C74">
         <v>45</v>
       </c>
-      <c r="D71">
+      <c r="D74">
         <v>378</v>
       </c>
-      <c r="E71">
-        <v>4</v>
-      </c>
-      <c r="F71">
+      <c r="E74">
+        <v>4</v>
+      </c>
+      <c r="F74">
         <v>8</v>
       </c>
-      <c r="G71">
-        <v>2.109483106</v>
-      </c>
-      <c r="H71">
-        <v>-4.8694992</v>
-      </c>
-      <c r="J71">
+      <c r="G74">
+        <v>-10.981406</v>
+      </c>
+      <c r="H74">
+        <v>50.78737</v>
+      </c>
+      <c r="J74">
         <v>2</v>
       </c>
-      <c r="K71" t="b">
+      <c r="K74" t="b">
         <v>1</v>
       </c>
     </row>

--- a/all_info/dziwne_badania.xlsx
+++ b/all_info/dziwne_badania.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="36">
   <si>
     <t>surname</t>
   </si>
@@ -49,9 +49,6 @@
     <t>1.Gasek</t>
   </si>
   <si>
-    <t>2. Kołodziejska</t>
-  </si>
-  <si>
     <t>4. Krzysztoń</t>
   </si>
   <si>
@@ -100,9 +97,6 @@
     <t>28.Podlesiński</t>
   </si>
   <si>
-    <t>29. Jankowski</t>
-  </si>
-  <si>
     <t>31.Marianowska</t>
   </si>
   <si>
@@ -115,25 +109,16 @@
     <t>37.Milewski</t>
   </si>
   <si>
-    <t>39. Pękała  twarz</t>
-  </si>
-  <si>
     <t>44.Chłopek</t>
   </si>
   <si>
     <t>53.Elabrashi</t>
   </si>
   <si>
-    <t>54. Antosik</t>
-  </si>
-  <si>
     <t>55.Gierz</t>
   </si>
   <si>
     <t>57.Jadczyk</t>
-  </si>
-  <si>
-    <t>66.Świder</t>
   </si>
   <si>
     <t>67.Świerczyńska</t>
@@ -494,7 +479,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K74"/>
+  <dimension ref="A1:K55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -566,28 +551,28 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D3">
-        <v>306</v>
+        <v>66</v>
       </c>
       <c r="E3">
         <v>4</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G3">
-        <v>-59.5536</v>
+        <v>-18.0301</v>
       </c>
       <c r="H3">
-        <v>71.03264</v>
+        <v>-13.664</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -598,31 +583,31 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
       <c r="C4">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D4">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>4</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>-18.0301</v>
+        <v>-2.33455</v>
       </c>
       <c r="H4">
-        <v>-13.664</v>
+        <v>-2.33455</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="b">
         <v>1</v>
@@ -630,28 +615,28 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D5">
-        <v>252</v>
+        <v>164</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G5">
-        <v>-46.9263</v>
+        <v>-15.3706</v>
       </c>
       <c r="H5">
-        <v>-39.6762</v>
+        <v>30.77758</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -662,31 +647,31 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D6">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="E6">
         <v>4</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G6">
-        <v>-2.33455</v>
+        <v>-2.06039</v>
       </c>
       <c r="H6">
-        <v>-2.33455</v>
+        <v>42.92251</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" t="b">
         <v>1</v>
@@ -694,31 +679,31 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="D7">
-        <v>122</v>
+        <v>605</v>
       </c>
       <c r="E7">
         <v>4</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G7">
-        <v>-45.4073</v>
+        <v>-21.356</v>
       </c>
       <c r="H7">
-        <v>-16.5187</v>
+        <v>79.34186</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K7" t="b">
         <v>1</v>
@@ -726,31 +711,31 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C8">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D8">
-        <v>164</v>
+        <v>28</v>
       </c>
       <c r="E8">
         <v>4</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G8">
-        <v>-25.316</v>
+        <v>-8.875719999999999</v>
       </c>
       <c r="H8">
-        <v>-46.0165</v>
+        <v>-8.875719999999999</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="b">
         <v>1</v>
@@ -758,28 +743,28 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D9">
-        <v>122</v>
+        <v>169</v>
       </c>
       <c r="E9">
         <v>4</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G9">
-        <v>-38.1468</v>
+        <v>-4.38974</v>
       </c>
       <c r="H9">
-        <v>39.99995</v>
+        <v>37.92809</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -790,28 +775,28 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="D10">
-        <v>164</v>
+        <v>242</v>
       </c>
       <c r="E10">
         <v>4</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G10">
-        <v>-15.3706</v>
+        <v>-2.32511</v>
       </c>
       <c r="H10">
-        <v>30.77758</v>
+        <v>36.48485</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -822,7 +807,7 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
@@ -831,22 +816,22 @@
         <v>42</v>
       </c>
       <c r="D11">
-        <v>133</v>
+        <v>284</v>
       </c>
       <c r="E11">
         <v>4</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G11">
-        <v>-2.06039</v>
+        <v>-4.10477</v>
       </c>
       <c r="H11">
-        <v>42.92251</v>
+        <v>33.8777</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K11" t="b">
         <v>1</v>
@@ -854,31 +839,31 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
       </c>
       <c r="C12">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D12">
-        <v>218</v>
+        <v>558</v>
       </c>
       <c r="E12">
         <v>4</v>
       </c>
       <c r="F12">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G12">
-        <v>-42.4125</v>
+        <v>-15.0963</v>
       </c>
       <c r="H12">
-        <v>55.1882</v>
+        <v>40.49745</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K12" t="b">
         <v>1</v>
@@ -886,31 +871,31 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
       </c>
       <c r="C13">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D13">
-        <v>605</v>
+        <v>649</v>
       </c>
       <c r="E13">
         <v>4</v>
       </c>
       <c r="F13">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G13">
-        <v>-21.356</v>
+        <v>-7.16202</v>
       </c>
       <c r="H13">
-        <v>79.34186</v>
+        <v>58.59751</v>
       </c>
       <c r="J13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K13" t="b">
         <v>1</v>
@@ -918,31 +903,31 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
       </c>
       <c r="C14">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D14">
-        <v>28</v>
+        <v>347</v>
       </c>
       <c r="E14">
         <v>4</v>
       </c>
       <c r="F14">
+        <v>11</v>
+      </c>
+      <c r="G14">
+        <v>-9.48385</v>
+      </c>
+      <c r="H14">
+        <v>35.63326</v>
+      </c>
+      <c r="J14">
         <v>2</v>
-      </c>
-      <c r="G14">
-        <v>-8.875719999999999</v>
-      </c>
-      <c r="H14">
-        <v>-8.875719999999999</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
       </c>
       <c r="K14" t="b">
         <v>1</v>
@@ -950,31 +935,31 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
       </c>
       <c r="C15">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D15">
-        <v>169</v>
+        <v>445</v>
       </c>
       <c r="E15">
         <v>4</v>
       </c>
       <c r="F15">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="G15">
-        <v>-4.38974</v>
+        <v>-2.12815</v>
       </c>
       <c r="H15">
-        <v>37.92809</v>
+        <v>37.90578</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K15" t="b">
         <v>1</v>
@@ -982,16 +967,16 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C16">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="D16">
-        <v>242</v>
+        <v>147</v>
       </c>
       <c r="E16">
         <v>4</v>
@@ -1000,10 +985,10 @@
         <v>7</v>
       </c>
       <c r="G16">
-        <v>-2.32511</v>
+        <v>-0.11552</v>
       </c>
       <c r="H16">
-        <v>36.48485</v>
+        <v>41.1359</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -1014,16 +999,16 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C17">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D17">
-        <v>284</v>
+        <v>182</v>
       </c>
       <c r="E17">
         <v>4</v>
@@ -1032,10 +1017,10 @@
         <v>8</v>
       </c>
       <c r="G17">
-        <v>-4.10477</v>
+        <v>-10.938</v>
       </c>
       <c r="H17">
-        <v>33.8777</v>
+        <v>34.69733</v>
       </c>
       <c r="J17">
         <v>2</v>
@@ -1046,31 +1031,31 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C18">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D18">
-        <v>558</v>
+        <v>245</v>
       </c>
       <c r="E18">
         <v>4</v>
       </c>
       <c r="F18">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G18">
-        <v>-15.0963</v>
+        <v>-17.9475</v>
       </c>
       <c r="H18">
-        <v>40.49745</v>
+        <v>47.55594</v>
       </c>
       <c r="J18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K18" t="b">
         <v>1</v>
@@ -1078,31 +1063,31 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C19">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="D19">
-        <v>649</v>
+        <v>71</v>
       </c>
       <c r="E19">
         <v>4</v>
       </c>
       <c r="F19">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>-7.16202</v>
+        <v>-10.5014</v>
       </c>
       <c r="H19">
-        <v>58.59751</v>
+        <v>-10.5014</v>
       </c>
       <c r="J19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K19" t="b">
         <v>1</v>
@@ -1110,31 +1095,31 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C20">
         <v>28</v>
       </c>
       <c r="D20">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="E20">
         <v>4</v>
       </c>
       <c r="F20">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G20">
-        <v>-22.8096</v>
+        <v>-8.73962</v>
       </c>
       <c r="H20">
-        <v>21.04104</v>
+        <v>26.69809</v>
       </c>
       <c r="J20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K20" t="b">
         <v>1</v>
@@ -1142,31 +1127,31 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C21">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D21">
-        <v>263</v>
+        <v>298</v>
       </c>
       <c r="E21">
         <v>4</v>
       </c>
       <c r="F21">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G21">
-        <v>-54.7193</v>
+        <v>-13.3967</v>
       </c>
       <c r="H21">
-        <v>-22.1647</v>
+        <v>48.3614</v>
       </c>
       <c r="J21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K21" t="b">
         <v>1</v>
@@ -1174,16 +1159,16 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1">
-        <v>60</v>
+        <v>109</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C22">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D22">
-        <v>347</v>
+        <v>428</v>
       </c>
       <c r="E22">
         <v>4</v>
@@ -1192,10 +1177,10 @@
         <v>11</v>
       </c>
       <c r="G22">
-        <v>-9.48385</v>
+        <v>-0.22155</v>
       </c>
       <c r="H22">
-        <v>35.63326</v>
+        <v>48.85594</v>
       </c>
       <c r="J22">
         <v>2</v>
@@ -1206,31 +1191,31 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1">
-        <v>63</v>
+        <v>114</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C23">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D23">
-        <v>445</v>
+        <v>174</v>
       </c>
       <c r="E23">
         <v>4</v>
       </c>
       <c r="F23">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="G23">
-        <v>-2.12815</v>
+        <v>-3.24918</v>
       </c>
       <c r="H23">
-        <v>37.90578</v>
+        <v>49.90013</v>
       </c>
       <c r="J23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K23" t="b">
         <v>1</v>
@@ -1238,31 +1223,31 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="1">
-        <v>71</v>
+        <v>117</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C24">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D24">
-        <v>91</v>
+        <v>272</v>
       </c>
       <c r="E24">
         <v>4</v>
       </c>
       <c r="F24">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G24">
-        <v>-47.097</v>
+        <v>-4.52483</v>
       </c>
       <c r="H24">
-        <v>6.637161</v>
+        <v>66.73675</v>
       </c>
       <c r="J24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K24" t="b">
         <v>1</v>
@@ -1270,31 +1255,31 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="1">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C25">
         <v>28</v>
       </c>
       <c r="D25">
-        <v>147</v>
+        <v>300</v>
       </c>
       <c r="E25">
         <v>4</v>
       </c>
       <c r="F25">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G25">
-        <v>-0.11552</v>
+        <v>-6.92471</v>
       </c>
       <c r="H25">
-        <v>41.1359</v>
+        <v>64.43337</v>
       </c>
       <c r="J25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K25" t="b">
         <v>1</v>
@@ -1302,28 +1287,28 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="1">
-        <v>74</v>
+        <v>120</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C26">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D26">
-        <v>182</v>
+        <v>517</v>
       </c>
       <c r="E26">
         <v>4</v>
       </c>
       <c r="F26">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G26">
-        <v>-10.938</v>
+        <v>-14.4924</v>
       </c>
       <c r="H26">
-        <v>34.69733</v>
+        <v>63.00372</v>
       </c>
       <c r="J26">
         <v>2</v>
@@ -1334,31 +1319,31 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="1">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C27">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D27">
-        <v>245</v>
+        <v>650</v>
       </c>
       <c r="E27">
         <v>4</v>
       </c>
       <c r="F27">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G27">
-        <v>-17.9475</v>
+        <v>-3.34781</v>
       </c>
       <c r="H27">
-        <v>47.55594</v>
+        <v>75.67066</v>
       </c>
       <c r="J27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K27" t="b">
         <v>1</v>
@@ -1366,31 +1351,31 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="1">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="B28" t="s">
         <v>19</v>
       </c>
       <c r="C28">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D28">
-        <v>71</v>
+        <v>979</v>
       </c>
       <c r="E28">
         <v>4</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="G28">
-        <v>-10.5014</v>
+        <v>-1.75382</v>
       </c>
       <c r="H28">
-        <v>-10.5014</v>
+        <v>76.9823</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K28" t="b">
         <v>1</v>
@@ -1398,31 +1383,31 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="1">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="B29" t="s">
         <v>19</v>
       </c>
       <c r="C29">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D29">
-        <v>214</v>
+        <v>1021</v>
       </c>
       <c r="E29">
         <v>4</v>
       </c>
       <c r="F29">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="G29">
-        <v>-8.73962</v>
+        <v>-0.14709</v>
       </c>
       <c r="H29">
-        <v>26.69809</v>
+        <v>76.94844000000001</v>
       </c>
       <c r="J29">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K29" t="b">
         <v>1</v>
@@ -1430,28 +1415,28 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="1">
-        <v>105</v>
+        <v>153</v>
       </c>
       <c r="B30" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C30">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="D30">
-        <v>298</v>
+        <v>171</v>
       </c>
       <c r="E30">
         <v>4</v>
       </c>
       <c r="F30">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G30">
-        <v>-13.3967</v>
+        <v>-1.82511</v>
       </c>
       <c r="H30">
-        <v>48.3614</v>
+        <v>45.98197</v>
       </c>
       <c r="J30">
         <v>1</v>
@@ -1462,28 +1447,28 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="1">
-        <v>106</v>
+        <v>157</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C31">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D31">
-        <v>327</v>
+        <v>286</v>
       </c>
       <c r="E31">
         <v>4</v>
       </c>
       <c r="F31">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G31">
-        <v>-43.7845</v>
+        <v>-8.92324</v>
       </c>
       <c r="H31">
-        <v>25.75168</v>
+        <v>67.11295</v>
       </c>
       <c r="J31">
         <v>2</v>
@@ -1494,31 +1479,31 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="1">
-        <v>108</v>
+        <v>166</v>
       </c>
       <c r="B32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32">
+        <v>49</v>
+      </c>
+      <c r="D32">
+        <v>944</v>
+      </c>
+      <c r="E32">
+        <v>4</v>
+      </c>
+      <c r="F32">
         <v>19</v>
       </c>
-      <c r="C32">
-        <v>31</v>
-      </c>
-      <c r="D32">
-        <v>389</v>
-      </c>
-      <c r="E32">
-        <v>4</v>
-      </c>
-      <c r="F32">
-        <v>10</v>
-      </c>
       <c r="G32">
-        <v>-30.7956</v>
+        <v>-5.73208</v>
       </c>
       <c r="H32">
-        <v>48.969</v>
+        <v>73.16970999999999</v>
       </c>
       <c r="J32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K32" t="b">
         <v>1</v>
@@ -1526,31 +1511,31 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="1">
-        <v>109</v>
+        <v>174</v>
       </c>
       <c r="B33" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C33">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="D33">
-        <v>428</v>
+        <v>258</v>
       </c>
       <c r="E33">
         <v>4</v>
       </c>
       <c r="F33">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G33">
-        <v>-0.22155</v>
+        <v>-7.43839</v>
       </c>
       <c r="H33">
-        <v>48.85594</v>
+        <v>32.6951</v>
       </c>
       <c r="J33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K33" t="b">
         <v>1</v>
@@ -1558,31 +1543,31 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="1">
-        <v>114</v>
+        <v>175</v>
       </c>
       <c r="B34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C34">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D34">
-        <v>174</v>
+        <v>298</v>
       </c>
       <c r="E34">
         <v>4</v>
       </c>
       <c r="F34">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G34">
-        <v>-3.24918</v>
+        <v>-3.0693</v>
       </c>
       <c r="H34">
-        <v>49.90013</v>
+        <v>31.5738</v>
       </c>
       <c r="J34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K34" t="b">
         <v>1</v>
@@ -1590,31 +1575,31 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="1">
-        <v>117</v>
+        <v>178</v>
       </c>
       <c r="B35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C35">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="D35">
-        <v>272</v>
+        <v>486</v>
       </c>
       <c r="E35">
         <v>4</v>
       </c>
       <c r="F35">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="G35">
-        <v>-4.52483</v>
+        <v>-0.43167</v>
       </c>
       <c r="H35">
-        <v>66.73675</v>
+        <v>31.10492</v>
       </c>
       <c r="J35">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K35" t="b">
         <v>1</v>
@@ -1622,31 +1607,31 @@
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="1">
-        <v>118</v>
+        <v>186</v>
       </c>
       <c r="B36" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C36">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="D36">
-        <v>300</v>
+        <v>176</v>
       </c>
       <c r="E36">
         <v>4</v>
       </c>
       <c r="F36">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G36">
-        <v>-6.92471</v>
+        <v>-9.858269999999999</v>
       </c>
       <c r="H36">
-        <v>64.43337</v>
+        <v>37.58051</v>
       </c>
       <c r="J36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K36" t="b">
         <v>1</v>
@@ -1654,31 +1639,31 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="1">
-        <v>120</v>
+        <v>187</v>
       </c>
       <c r="B37" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C37">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D37">
-        <v>517</v>
+        <v>200</v>
       </c>
       <c r="E37">
         <v>4</v>
       </c>
       <c r="F37">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G37">
-        <v>-14.4924</v>
+        <v>-16.3226</v>
       </c>
       <c r="H37">
-        <v>63.00372</v>
+        <v>26.60753</v>
       </c>
       <c r="J37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K37" t="b">
         <v>1</v>
@@ -1686,31 +1671,31 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="1">
-        <v>123</v>
+        <v>205</v>
       </c>
       <c r="B38" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C38">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D38">
-        <v>650</v>
+        <v>35</v>
       </c>
       <c r="E38">
         <v>4</v>
       </c>
       <c r="F38">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G38">
-        <v>-3.34781</v>
+        <v>-1.80238</v>
       </c>
       <c r="H38">
-        <v>75.67066</v>
+        <v>-1.80238</v>
       </c>
       <c r="J38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K38" t="b">
         <v>1</v>
@@ -1718,31 +1703,31 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="1">
-        <v>126</v>
+        <v>209</v>
       </c>
       <c r="B39" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C39">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D39">
-        <v>979</v>
+        <v>252</v>
       </c>
       <c r="E39">
         <v>4</v>
       </c>
       <c r="F39">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="G39">
-        <v>-1.75382</v>
+        <v>-2.21081</v>
       </c>
       <c r="H39">
-        <v>76.9823</v>
+        <v>32.6407</v>
       </c>
       <c r="J39">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K39" t="b">
         <v>1</v>
@@ -1750,31 +1735,31 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="1">
-        <v>127</v>
+        <v>227</v>
       </c>
       <c r="B40" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C40">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D40">
-        <v>1021</v>
+        <v>306</v>
       </c>
       <c r="E40">
         <v>4</v>
       </c>
       <c r="F40">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="G40">
-        <v>-0.14709</v>
+        <v>-8.200900000000001</v>
       </c>
       <c r="H40">
-        <v>76.94844000000001</v>
+        <v>9.941713999999999</v>
       </c>
       <c r="J40">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K40" t="b">
         <v>1</v>
@@ -1782,28 +1767,28 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="1">
-        <v>153</v>
+        <v>233</v>
       </c>
       <c r="B41" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C41">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="D41">
-        <v>171</v>
+        <v>405</v>
       </c>
       <c r="E41">
         <v>4</v>
       </c>
       <c r="F41">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G41">
-        <v>-1.82511</v>
+        <v>-10.808</v>
       </c>
       <c r="H41">
-        <v>45.98197</v>
+        <v>44.42099</v>
       </c>
       <c r="J41">
         <v>1</v>
@@ -1814,28 +1799,28 @@
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="1">
-        <v>157</v>
+        <v>236</v>
       </c>
       <c r="B42" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C42">
         <v>28</v>
       </c>
       <c r="D42">
-        <v>286</v>
+        <v>663</v>
       </c>
       <c r="E42">
         <v>4</v>
       </c>
       <c r="F42">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G42">
-        <v>-8.92324</v>
+        <v>-8.956950000000001</v>
       </c>
       <c r="H42">
-        <v>67.11295</v>
+        <v>65.39642000000001</v>
       </c>
       <c r="J42">
         <v>2</v>
@@ -1846,31 +1831,31 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="1">
-        <v>158</v>
+        <v>246</v>
       </c>
       <c r="B43" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C43">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D43">
-        <v>328</v>
+        <v>503</v>
       </c>
       <c r="E43">
         <v>4</v>
       </c>
       <c r="F43">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G43">
-        <v>-26.0822</v>
+        <v>-5.0572</v>
       </c>
       <c r="H43">
-        <v>58.5353</v>
+        <v>59.13645</v>
       </c>
       <c r="J43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K43" t="b">
         <v>1</v>
@@ -1878,31 +1863,31 @@
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1">
-        <v>166</v>
+        <v>262</v>
       </c>
       <c r="B44" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C44">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D44">
-        <v>944</v>
+        <v>278</v>
       </c>
       <c r="E44">
         <v>4</v>
       </c>
       <c r="F44">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="G44">
-        <v>-5.73208</v>
+        <v>-13.1115</v>
       </c>
       <c r="H44">
-        <v>73.16970999999999</v>
+        <v>57.40975</v>
       </c>
       <c r="J44">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K44" t="b">
         <v>1</v>
@@ -1910,31 +1895,31 @@
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="1">
-        <v>174</v>
+        <v>265</v>
       </c>
       <c r="B45" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C45">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D45">
-        <v>258</v>
+        <v>505</v>
       </c>
       <c r="E45">
         <v>4</v>
       </c>
       <c r="F45">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G45">
-        <v>-7.43839</v>
+        <v>-13.4184</v>
       </c>
       <c r="H45">
-        <v>32.6951</v>
+        <v>56.03707</v>
       </c>
       <c r="J45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K45" t="b">
         <v>1</v>
@@ -1942,31 +1927,31 @@
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1">
-        <v>175</v>
+        <v>283</v>
       </c>
       <c r="B46" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C46">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D46">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="E46">
         <v>4</v>
       </c>
       <c r="F46">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G46">
-        <v>-3.0693</v>
+        <v>-3.41071</v>
       </c>
       <c r="H46">
-        <v>31.5738</v>
+        <v>84.1268</v>
       </c>
       <c r="J46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K46" t="b">
         <v>1</v>
@@ -1974,31 +1959,31 @@
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1">
-        <v>178</v>
+        <v>284</v>
       </c>
       <c r="B47" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C47">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="D47">
-        <v>486</v>
+        <v>340</v>
       </c>
       <c r="E47">
         <v>4</v>
       </c>
       <c r="F47">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="G47">
-        <v>-0.43167</v>
+        <v>-3.37806</v>
       </c>
       <c r="H47">
-        <v>31.10492</v>
+        <v>83.59059000000001</v>
       </c>
       <c r="J47">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K47" t="b">
         <v>1</v>
@@ -2006,28 +1991,28 @@
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="1">
-        <v>186</v>
+        <v>293</v>
       </c>
       <c r="B48" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C48">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D48">
-        <v>176</v>
+        <v>322</v>
       </c>
       <c r="E48">
         <v>4</v>
       </c>
       <c r="F48">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G48">
-        <v>-9.858269999999999</v>
+        <v>-10.769</v>
       </c>
       <c r="H48">
-        <v>37.58051</v>
+        <v>27.61741</v>
       </c>
       <c r="J48">
         <v>1</v>
@@ -2038,28 +2023,28 @@
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="1">
-        <v>187</v>
+        <v>323</v>
       </c>
       <c r="B49" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C49">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="D49">
-        <v>200</v>
+        <v>412</v>
       </c>
       <c r="E49">
         <v>4</v>
       </c>
       <c r="F49">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G49">
-        <v>-16.3226</v>
+        <v>-3.40189</v>
       </c>
       <c r="H49">
-        <v>26.60753</v>
+        <v>68.18422</v>
       </c>
       <c r="J49">
         <v>1</v>
@@ -2070,31 +2055,31 @@
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="1">
-        <v>205</v>
+        <v>324</v>
       </c>
       <c r="B50" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C50">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D50">
-        <v>35</v>
+        <v>450</v>
       </c>
       <c r="E50">
         <v>4</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G50">
-        <v>-1.80238</v>
+        <v>-2.95104</v>
       </c>
       <c r="H50">
-        <v>-1.80238</v>
+        <v>67.24532000000001</v>
       </c>
       <c r="J50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K50" t="b">
         <v>1</v>
@@ -2102,31 +2087,31 @@
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="1">
-        <v>209</v>
+        <v>356</v>
       </c>
       <c r="B51" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C51">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="D51">
-        <v>252</v>
+        <v>28</v>
       </c>
       <c r="E51">
         <v>4</v>
       </c>
       <c r="F51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G51">
-        <v>-2.21081</v>
+        <v>-21.7972</v>
       </c>
       <c r="H51">
-        <v>32.6407</v>
+        <v>-21.7972</v>
       </c>
       <c r="J51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51" t="b">
         <v>1</v>
@@ -2134,31 +2119,31 @@
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="1">
-        <v>227</v>
+        <v>368</v>
       </c>
       <c r="B52" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C52">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D52">
-        <v>306</v>
+        <v>41</v>
       </c>
       <c r="E52">
         <v>4</v>
       </c>
       <c r="F52">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G52">
-        <v>-8.200900000000001</v>
+        <v>-12.733323</v>
       </c>
       <c r="H52">
-        <v>9.941713999999999</v>
+        <v>-12.733323</v>
       </c>
       <c r="J52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52" t="b">
         <v>1</v>
@@ -2166,31 +2151,31 @@
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="1">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="B53" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C53">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D53">
-        <v>405</v>
+        <v>466</v>
       </c>
       <c r="E53">
         <v>4</v>
       </c>
       <c r="F53">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G53">
-        <v>-10.808</v>
+        <v>-0.9202911</v>
       </c>
       <c r="H53">
-        <v>44.42099</v>
+        <v>39.88096</v>
       </c>
       <c r="J53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K53" t="b">
         <v>1</v>
@@ -2198,31 +2183,31 @@
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="1">
-        <v>236</v>
+        <v>392</v>
       </c>
       <c r="B54" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C54">
         <v>28</v>
       </c>
       <c r="D54">
-        <v>663</v>
+        <v>28</v>
       </c>
       <c r="E54">
         <v>4</v>
       </c>
       <c r="F54">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G54">
-        <v>-8.956950000000001</v>
+        <v>-5.5869878</v>
       </c>
       <c r="H54">
-        <v>65.39642000000001</v>
+        <v>-5.5869878</v>
       </c>
       <c r="J54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K54" t="b">
         <v>1</v>
@@ -2230,641 +2215,33 @@
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="1">
-        <v>237</v>
+        <v>399</v>
       </c>
       <c r="B55" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C55">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D55">
-        <v>50</v>
+        <v>378</v>
       </c>
       <c r="E55">
         <v>4</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G55">
-        <v>-27.7512</v>
+        <v>-10.981406</v>
       </c>
       <c r="H55">
-        <v>-27.7512</v>
+        <v>50.78737</v>
       </c>
       <c r="J55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K55" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
-      <c r="A56" s="1">
-        <v>246</v>
-      </c>
-      <c r="B56" t="s">
-        <v>29</v>
-      </c>
-      <c r="C56">
-        <v>28</v>
-      </c>
-      <c r="D56">
-        <v>503</v>
-      </c>
-      <c r="E56">
-        <v>4</v>
-      </c>
-      <c r="F56">
-        <v>6</v>
-      </c>
-      <c r="G56">
-        <v>-5.0572</v>
-      </c>
-      <c r="H56">
-        <v>59.13645</v>
-      </c>
-      <c r="J56">
-        <v>1</v>
-      </c>
-      <c r="K56" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
-      <c r="A57" s="1">
-        <v>262</v>
-      </c>
-      <c r="B57" t="s">
-        <v>30</v>
-      </c>
-      <c r="C57">
-        <v>55</v>
-      </c>
-      <c r="D57">
-        <v>278</v>
-      </c>
-      <c r="E57">
-        <v>4</v>
-      </c>
-      <c r="F57">
-        <v>8</v>
-      </c>
-      <c r="G57">
-        <v>-13.1115</v>
-      </c>
-      <c r="H57">
-        <v>57.40975</v>
-      </c>
-      <c r="J57">
-        <v>2</v>
-      </c>
-      <c r="K57" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
-      <c r="A58" s="1">
-        <v>265</v>
-      </c>
-      <c r="B58" t="s">
-        <v>30</v>
-      </c>
-      <c r="C58">
-        <v>62</v>
-      </c>
-      <c r="D58">
-        <v>505</v>
-      </c>
-      <c r="E58">
-        <v>4</v>
-      </c>
-      <c r="F58">
-        <v>10</v>
-      </c>
-      <c r="G58">
-        <v>-13.4184</v>
-      </c>
-      <c r="H58">
-        <v>56.03707</v>
-      </c>
-      <c r="J58">
-        <v>2</v>
-      </c>
-      <c r="K58" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
-      <c r="A59" s="1">
-        <v>283</v>
-      </c>
-      <c r="B59" t="s">
-        <v>31</v>
-      </c>
-      <c r="C59">
-        <v>35</v>
-      </c>
-      <c r="D59">
-        <v>312</v>
-      </c>
-      <c r="E59">
-        <v>4</v>
-      </c>
-      <c r="F59">
-        <v>7</v>
-      </c>
-      <c r="G59">
-        <v>-3.41071</v>
-      </c>
-      <c r="H59">
-        <v>84.1268</v>
-      </c>
-      <c r="J59">
-        <v>1</v>
-      </c>
-      <c r="K59" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
-      <c r="A60" s="1">
-        <v>284</v>
-      </c>
-      <c r="B60" t="s">
-        <v>31</v>
-      </c>
-      <c r="C60">
-        <v>28</v>
-      </c>
-      <c r="D60">
-        <v>340</v>
-      </c>
-      <c r="E60">
-        <v>4</v>
-      </c>
-      <c r="F60">
-        <v>8</v>
-      </c>
-      <c r="G60">
-        <v>-3.37806</v>
-      </c>
-      <c r="H60">
-        <v>83.59059000000001</v>
-      </c>
-      <c r="J60">
-        <v>2</v>
-      </c>
-      <c r="K60" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
-      <c r="A61" s="1">
-        <v>293</v>
-      </c>
-      <c r="B61" t="s">
-        <v>32</v>
-      </c>
-      <c r="C61">
-        <v>59</v>
-      </c>
-      <c r="D61">
-        <v>322</v>
-      </c>
-      <c r="E61">
-        <v>4</v>
-      </c>
-      <c r="F61">
-        <v>5</v>
-      </c>
-      <c r="G61">
-        <v>-10.769</v>
-      </c>
-      <c r="H61">
-        <v>27.61741</v>
-      </c>
-      <c r="J61">
-        <v>1</v>
-      </c>
-      <c r="K61" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11">
-      <c r="A62" s="1">
-        <v>305</v>
-      </c>
-      <c r="B62" t="s">
-        <v>33</v>
-      </c>
-      <c r="C62">
-        <v>21</v>
-      </c>
-      <c r="D62">
-        <v>238</v>
-      </c>
-      <c r="E62">
-        <v>4</v>
-      </c>
-      <c r="F62">
-        <v>7</v>
-      </c>
-      <c r="G62">
-        <v>-57.5811</v>
-      </c>
-      <c r="H62">
-        <v>44.7306</v>
-      </c>
-      <c r="J62">
-        <v>1</v>
-      </c>
-      <c r="K62" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11">
-      <c r="A63" s="1">
-        <v>308</v>
-      </c>
-      <c r="B63" t="s">
-        <v>33</v>
-      </c>
-      <c r="C63">
-        <v>31</v>
-      </c>
-      <c r="D63">
-        <v>343</v>
-      </c>
-      <c r="E63">
-        <v>4</v>
-      </c>
-      <c r="F63">
-        <v>10</v>
-      </c>
-      <c r="G63">
-        <v>-85.3986</v>
-      </c>
-      <c r="H63">
-        <v>50.97122187</v>
-      </c>
-      <c r="J63">
-        <v>2</v>
-      </c>
-      <c r="K63" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11">
-      <c r="A64" s="1">
-        <v>311</v>
-      </c>
-      <c r="B64" t="s">
-        <v>33</v>
-      </c>
-      <c r="C64">
-        <v>28</v>
-      </c>
-      <c r="D64">
-        <v>587</v>
-      </c>
-      <c r="E64">
-        <v>4</v>
-      </c>
-      <c r="F64">
-        <v>13</v>
-      </c>
-      <c r="G64">
-        <v>-35.6178</v>
-      </c>
-      <c r="H64">
-        <v>67.49758144</v>
-      </c>
-      <c r="J64">
-        <v>3</v>
-      </c>
-      <c r="K64" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11">
-      <c r="A65" s="1">
-        <v>323</v>
-      </c>
-      <c r="B65" t="s">
-        <v>34</v>
-      </c>
-      <c r="C65">
-        <v>60</v>
-      </c>
-      <c r="D65">
-        <v>412</v>
-      </c>
-      <c r="E65">
-        <v>4</v>
-      </c>
-      <c r="F65">
-        <v>6</v>
-      </c>
-      <c r="G65">
-        <v>-3.40189</v>
-      </c>
-      <c r="H65">
-        <v>68.18422</v>
-      </c>
-      <c r="J65">
-        <v>1</v>
-      </c>
-      <c r="K65" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11">
-      <c r="A66" s="1">
-        <v>324</v>
-      </c>
-      <c r="B66" t="s">
-        <v>34</v>
-      </c>
-      <c r="C66">
-        <v>38</v>
-      </c>
-      <c r="D66">
-        <v>450</v>
-      </c>
-      <c r="E66">
-        <v>4</v>
-      </c>
-      <c r="F66">
-        <v>7</v>
-      </c>
-      <c r="G66">
-        <v>-2.95104</v>
-      </c>
-      <c r="H66">
-        <v>67.24532000000001</v>
-      </c>
-      <c r="J66">
-        <v>1</v>
-      </c>
-      <c r="K66" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11">
-      <c r="A67" s="1">
-        <v>356</v>
-      </c>
-      <c r="B67" t="s">
-        <v>35</v>
-      </c>
-      <c r="C67">
-        <v>28</v>
-      </c>
-      <c r="D67">
-        <v>28</v>
-      </c>
-      <c r="E67">
-        <v>4</v>
-      </c>
-      <c r="F67">
-        <v>1</v>
-      </c>
-      <c r="G67">
-        <v>-21.7972</v>
-      </c>
-      <c r="H67">
-        <v>-21.7972</v>
-      </c>
-      <c r="J67">
-        <v>0</v>
-      </c>
-      <c r="K67" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11">
-      <c r="A68" s="1">
-        <v>362</v>
-      </c>
-      <c r="B68" t="s">
-        <v>36</v>
-      </c>
-      <c r="C68">
-        <v>28</v>
-      </c>
-      <c r="D68">
-        <v>231</v>
-      </c>
-      <c r="E68">
-        <v>4</v>
-      </c>
-      <c r="F68">
-        <v>16</v>
-      </c>
-      <c r="G68">
-        <v>-24.33521561</v>
-      </c>
-      <c r="H68">
-        <v>25.907326</v>
-      </c>
-      <c r="J68">
-        <v>3</v>
-      </c>
-      <c r="K68" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11">
-      <c r="A69" s="1">
-        <v>368</v>
-      </c>
-      <c r="B69" t="s">
-        <v>37</v>
-      </c>
-      <c r="C69">
-        <v>41</v>
-      </c>
-      <c r="D69">
-        <v>41</v>
-      </c>
-      <c r="E69">
-        <v>4</v>
-      </c>
-      <c r="F69">
-        <v>1</v>
-      </c>
-      <c r="G69">
-        <v>-12.733323</v>
-      </c>
-      <c r="H69">
-        <v>-12.733323</v>
-      </c>
-      <c r="J69">
-        <v>0</v>
-      </c>
-      <c r="K69" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11">
-      <c r="A70" s="1">
-        <v>377</v>
-      </c>
-      <c r="B70" t="s">
-        <v>38</v>
-      </c>
-      <c r="C70">
-        <v>33</v>
-      </c>
-      <c r="D70">
-        <v>466</v>
-      </c>
-      <c r="E70">
-        <v>4</v>
-      </c>
-      <c r="F70">
-        <v>2</v>
-      </c>
-      <c r="G70">
-        <v>-0.9202911</v>
-      </c>
-      <c r="H70">
-        <v>39.88096</v>
-      </c>
-      <c r="J70">
-        <v>0</v>
-      </c>
-      <c r="K70" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11">
-      <c r="A71" s="1">
-        <v>389</v>
-      </c>
-      <c r="B71" t="s">
-        <v>39</v>
-      </c>
-      <c r="C71">
-        <v>16</v>
-      </c>
-      <c r="D71">
-        <v>109</v>
-      </c>
-      <c r="E71">
-        <v>3</v>
-      </c>
-      <c r="F71">
-        <v>14</v>
-      </c>
-      <c r="G71">
-        <v>-33.662672</v>
-      </c>
-      <c r="H71">
-        <v>60.675066</v>
-      </c>
-      <c r="J71">
-        <v>3</v>
-      </c>
-      <c r="K71" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11">
-      <c r="A72" s="1">
-        <v>392</v>
-      </c>
-      <c r="B72" t="s">
-        <v>40</v>
-      </c>
-      <c r="C72">
-        <v>28</v>
-      </c>
-      <c r="D72">
-        <v>28</v>
-      </c>
-      <c r="E72">
-        <v>4</v>
-      </c>
-      <c r="F72">
-        <v>1</v>
-      </c>
-      <c r="G72">
-        <v>-5.5869878</v>
-      </c>
-      <c r="H72">
-        <v>-5.5869878</v>
-      </c>
-      <c r="J72">
-        <v>0</v>
-      </c>
-      <c r="K72" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11">
-      <c r="A73" s="1">
-        <v>395</v>
-      </c>
-      <c r="B73" t="s">
-        <v>40</v>
-      </c>
-      <c r="C73">
-        <v>36</v>
-      </c>
-      <c r="D73">
-        <v>117</v>
-      </c>
-      <c r="E73">
-        <v>4</v>
-      </c>
-      <c r="F73">
-        <v>4</v>
-      </c>
-      <c r="G73">
-        <v>-38.106394</v>
-      </c>
-      <c r="H73">
-        <v>44.939205</v>
-      </c>
-      <c r="J73">
-        <v>1</v>
-      </c>
-      <c r="K73" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11">
-      <c r="A74" s="1">
-        <v>399</v>
-      </c>
-      <c r="B74" t="s">
-        <v>40</v>
-      </c>
-      <c r="C74">
-        <v>45</v>
-      </c>
-      <c r="D74">
-        <v>378</v>
-      </c>
-      <c r="E74">
-        <v>4</v>
-      </c>
-      <c r="F74">
-        <v>8</v>
-      </c>
-      <c r="G74">
-        <v>-10.981406</v>
-      </c>
-      <c r="H74">
-        <v>50.78737</v>
-      </c>
-      <c r="J74">
-        <v>2</v>
-      </c>
-      <c r="K74" t="b">
         <v>1</v>
       </c>
     </row>
